--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2155108.734610657</v>
+        <v>2270859.251750583</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5293305.010427332</v>
+        <v>5588373.966537931</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.02949848241227</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>179.6823727411595</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>25.82782615689357</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>244.8816633701594</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,10 +910,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>146.6939239414318</v>
       </c>
       <c r="X5" t="n">
-        <v>267.7357237463023</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>22.10569049909553</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1110,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>256.8023848366755</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1141,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.25664966154039</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>342.2323582581473</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>85.06001947974396</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>31.28831241118253</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,10 +1375,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>97.85534759770511</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>243.9266518127011</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>266.2300280004902</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>82.64119670414925</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>35.20092700998642</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1856,13 +1858,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>179.0861311466744</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2141,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2242,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>140.7955163720461</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>176.9484966573163</v>
       </c>
     </row>
     <row r="26">
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>184.6723321165224</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>3.42339212608458</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>99.68042330889634</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3266,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884119</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>109.1426757626846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>129.7139627068452</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773026</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.39983766848283</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3904,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>129.7139627068457</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3958,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>202.7785358843482</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>58.25289306410175</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.80690004308</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>206.0370214115938</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>16.92574903168882</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>991.498727323736</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>957.3966585475634</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4334,22 +4336,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.8321612434534</v>
+        <v>1013.75789376824</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>91.74450617142992</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1649.676895495998</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1649.676895495998</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1649.676895495998</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>1649.676895495998</v>
       </c>
       <c r="W4" t="n">
-        <v>884.4397056785397</v>
+        <v>1377.650491082289</v>
       </c>
       <c r="X4" t="n">
-        <v>884.4397056785397</v>
+        <v>1132.258736415702</v>
       </c>
       <c r="Y4" t="n">
-        <v>884.4397056785397</v>
+        <v>1132.258736415702</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1668.573996516818</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1230.431523700241</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>794.5217388746859</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>764.7873980733851</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>740.960372522997</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="O5" t="n">
-        <v>1528.02936532736</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.966478762206</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720801</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="U5" t="n">
-        <v>1217.893900270473</v>
+        <v>2262.397026790874</v>
       </c>
       <c r="V5" t="n">
-        <v>855.2769502042993</v>
+        <v>2262.397026790874</v>
       </c>
       <c r="W5" t="n">
-        <v>450.4214956153326</v>
+        <v>2114.221346041953</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>2099.119286661668</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2094.873567001726</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326468</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993476</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>431.6596472970909</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970909</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970909</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>431.6596472970909</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>431.6596472970909</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1046.670860290282</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>874.1091487735067</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>708.2311559750294</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>538.4731522257666</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>361.7660981875229</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>196.1748232133505</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>56.27264890372504</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947715</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>341.7616130750586</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609525</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.20150817923</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.960139477226</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2095.080693055681</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>1835.684344735807</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.062614956869</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.062614956869</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="X7" t="n">
-        <v>1046.670860290282</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1046.670860290282</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>828.0282190637201</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>584.0217746594717</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N9" t="n">
-        <v>739.9048540962709</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>292.4245917140844</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>119.8628801973093</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>119.8628801973093</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>119.8628801973093</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>983.6892855326716</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>711.6628811189632</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>711.6628811189632</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.2432104330715</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1442.805921820813</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1004.663449004237</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1004.663449004237</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1004.663449004237</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>576.7960194134444</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>175.3981880367082</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>76.13761321162086</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>1018.340576705429</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M11" t="n">
-        <v>1960.543540199237</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N11" t="n">
-        <v>2902.746503693045</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O11" t="n">
-        <v>3806.880660581043</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P11" t="n">
-        <v>3806.880660581043</v>
+        <v>4977.20847509607</v>
       </c>
       <c r="Q11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.534079426757</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2277.391616006068</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1869.105492305721</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162086</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J12" t="n">
-        <v>400.6959381778332</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="K12" t="n">
-        <v>400.6959381778332</v>
+        <v>3982.067625626339</v>
       </c>
       <c r="L12" t="n">
-        <v>400.6959381778332</v>
+        <v>3982.067625626339</v>
       </c>
       <c r="M12" t="n">
-        <v>797.1744111966217</v>
+        <v>3982.067625626339</v>
       </c>
       <c r="N12" t="n">
-        <v>1739.37737469043</v>
+        <v>3982.067625626339</v>
       </c>
       <c r="O12" t="n">
-        <v>1739.37737469043</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="P12" t="n">
-        <v>1739.37737469043</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="Q12" t="n">
-        <v>1739.37737469043</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885522</v>
+        <v>3405.6825604988</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0719387717771</v>
+        <v>3233.120848982025</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732998</v>
+        <v>3067.242856183547</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>3067.242856183547</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>2890.535802145303</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162086</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>4867.162567117436</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>4588.729566370542</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>4342.339008983975</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360019</v>
+        <v>4070.312604570266</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>3824.920849903679</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>3597.501179217787</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2482.149096865502</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2044.006624048925</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1608.096839223369</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.322094381665</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>746.4546647908724</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>345.0568334141362</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O14" t="n">
-        <v>2287.945556116525</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.255430949921</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3327.591130771099</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3327.591130771099</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2908.448667350409</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2908.448667350409</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>634.526213836947</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>634.526213836947</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.195773823502</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C16" t="n">
-        <v>982.6340623067273</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2657.240731185142</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2657.240731185142</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2378.807730438247</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2091.852222308677</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1819.825817894969</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1574.434063228381</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1347.01439254249</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5506,37 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4977.20847509607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>405.0384966383147</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="M18" t="n">
-        <v>405.0384966383147</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="N18" t="n">
-        <v>405.0384966383147</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="O18" t="n">
-        <v>405.0384966383147</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1407.425887208553</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5677,46 +5679,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1632.322702740237</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5841,10 +5843,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6066,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>839.0206718702449</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1030.839290589232</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6309,13 +6311,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.8255515988633</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>703.2638400820882</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>537.3858472836109</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>367.6278435343481</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6658,13 +6660,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1540.45559567033</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1295.063841003742</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1067.64417031785</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1303.584742363081</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2460.632577573632</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6786,10 +6788,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2213.112338778418</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1926.156830648849</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1654.13042623514</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1408.738671568553</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>1612.575493976557</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N35" t="n">
-        <v>2738.306477413004</v>
+        <v>4729.704604581733</v>
       </c>
       <c r="O35" t="n">
-        <v>3718.48614398331</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7005,37 +7007,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>405.0384966383147</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>405.0384966383147</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>405.0384966383147</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>405.0384966383147</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>405.0384966383147</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136698</v>
@@ -7242,31 +7244,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>441.0680908387445</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1239.320025410537</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C41" t="n">
-        <v>801.1775525939602</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D41" t="n">
-        <v>365.2677677684046</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>365.2677677684046</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>365.2677677684046</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>306.1208027766317</v>
       </c>
       <c r="L41" t="n">
-        <v>2262.917935035995</v>
+        <v>306.1208027766317</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S41" t="n">
-        <v>3739.810117481566</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T41" t="n">
-        <v>3519.742890354604</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U41" t="n">
-        <v>3260.520587671621</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V41" t="n">
-        <v>2897.903637605447</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W41" t="n">
-        <v>2493.04818301648</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X41" t="n">
-        <v>2073.905719595791</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.619595895444</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>426.855364952796</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1057.657855042942</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C43" t="n">
-        <v>885.0961435261667</v>
+        <v>838.9992856166233</v>
       </c>
       <c r="D43" t="n">
-        <v>719.2181507276894</v>
+        <v>673.121292818146</v>
       </c>
       <c r="E43" t="n">
-        <v>549.4601469784266</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F43" t="n">
-        <v>372.7530929401828</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G43" t="n">
-        <v>207.1618179660105</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.287899114408</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.287899114408</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1476.896144447821</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y43" t="n">
-        <v>1249.476473761929</v>
+        <v>1203.379615852386</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1442.805921820813</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1004.663449004237</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>568.753664178681</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>134.9789193369762</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>134.9789193369762</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>1345.742592622717</v>
+        <v>2758.053686176686</v>
       </c>
       <c r="N44" t="n">
-        <v>1345.742592622717</v>
+        <v>2758.053686176686</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3738.233352746992</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4566.543227580389</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U44" t="n">
-        <v>3464.006484081897</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V44" t="n">
-        <v>3101.389534015723</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W44" t="n">
-        <v>2696.534079426757</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.391616006068</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1869.105492305721</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>426.855364952796</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>982.6340623067273</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067273</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>816.75606950825</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354683</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066039</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.808861774565</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2484.679019668366</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2206.246018921472</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1919.290510791902</v>
+        <v>1907.652494875569</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.264106378194</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1401.872351711606</v>
+        <v>1390.234335795273</v>
       </c>
       <c r="Y46" t="n">
-        <v>1174.452681025714</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>52.98895607821123</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>72.80589558611268</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,25 +8297,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741805</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191141</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>913.266825139392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>137.2055943867781</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>511.3148488946567</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>400.4833060795844</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
-        <v>526.7385503818841</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9009,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>209.8050995959142</v>
       </c>
       <c r="M15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>137.205594386779</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>243.3352893400963</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,13 +9491,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9647,19 +9649,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-6.040902026760094e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1150.947247550853</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,13 +10363,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>216.346812327467</v>
       </c>
       <c r="P35" t="n">
-        <v>685.7606250949693</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328637</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>327.8732572545617</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>205.9191540463152</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11136,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11318,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>188.3835054135108</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>40.15930123557271</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>20.00882501072573</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>88.19489769745806</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>96.56253959275131</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>84.34995760698669</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>48.19697732171653</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>84.63380825304901</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>175.9682474305294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>54.79268646174602</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.41551740951853</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.789189859683546</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>40.15930123557345</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>339.130959998867</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>37.38363054573546</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>208.219724947344</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>459578.5888890827</v>
+        <v>470147.1909084787</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459578.5888890827</v>
+        <v>472050.09094675</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395117.7039805854</v>
+        <v>488680.433208432</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395117.7039805854</v>
+        <v>488680.433208432</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488680.433208432</v>
+        <v>488680.4332084321</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488680.433208432</v>
+        <v>488680.4332084319</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395117.7039805854</v>
+        <v>488680.433208432</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395117.7039805854</v>
+        <v>488680.433208432</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>509339.9538958882</v>
+      </c>
+      <c r="C2" t="n">
         <v>509339.9538958881</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>509339.9538958882</v>
       </c>
-      <c r="D2" t="n">
-        <v>509339.9538958883</v>
-      </c>
       <c r="E2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
         <v>500514.7049304849</v>
@@ -26332,28 +26334,28 @@
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304847</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304846</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="M2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>500514.7049304849</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>404686.1866808237</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="P2" t="n">
-        <v>404686.1866808239</v>
+        <v>500514.7049304847</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501647</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998248</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877275</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622076</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>54981.2882843579</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="F4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933275</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="L4" t="n">
-        <v>68000.69828933281</v>
-      </c>
       <c r="M4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933278</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="O4" t="n">
-        <v>54981.28828435789</v>
+        <v>68000.69828933271</v>
       </c>
       <c r="P4" t="n">
-        <v>54981.28828435788</v>
+        <v>68000.69828933266</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800263</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107895.0388524403</v>
+        <v>107895.0388524404</v>
       </c>
       <c r="C6" t="n">
-        <v>250086.3395121503</v>
+        <v>207569.0733996233</v>
       </c>
       <c r="D6" t="n">
-        <v>250086.3395121503</v>
+        <v>266963.1925314743</v>
       </c>
       <c r="E6" t="n">
-        <v>134363.0174335301</v>
+        <v>172440.6588143098</v>
       </c>
       <c r="F6" t="n">
-        <v>291840.3123556342</v>
+        <v>354795.7680353596</v>
       </c>
       <c r="G6" t="n">
-        <v>265295.9594289904</v>
+        <v>354795.7680353596</v>
       </c>
       <c r="H6" t="n">
-        <v>354795.7680353595</v>
+        <v>354795.7680353594</v>
       </c>
       <c r="I6" t="n">
         <v>354795.7680353594</v>
       </c>
       <c r="J6" t="n">
-        <v>243781.3026903693</v>
+        <v>243781.3026903692</v>
       </c>
       <c r="K6" t="n">
-        <v>354795.7680353594</v>
+        <v>301749.9133965867</v>
       </c>
       <c r="L6" t="n">
-        <v>354795.7680353593</v>
+        <v>345403.4663087373</v>
       </c>
       <c r="M6" t="n">
-        <v>223359.52087794</v>
+        <v>202595.5970973718</v>
       </c>
       <c r="N6" t="n">
         <v>354795.7680353596</v>
       </c>
       <c r="O6" t="n">
-        <v>291840.312355634</v>
+        <v>354795.7680353594</v>
       </c>
       <c r="P6" t="n">
-        <v>291840.3123556341</v>
+        <v>354795.7680353595</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939246</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939246</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939246</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.0070762976464</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>251.8683142361404</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>131.8211288580897</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>24.42447699941198</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>254.1129761016452</v>
       </c>
       <c r="X5" t="n">
-        <v>147.2153150401801</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>65.66765923397588</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>18.8462859027502</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>72.71868052833514</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>89.87996401811738</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>212.1323395461467</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34702,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>52.98895607821123</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>320.0858880793245</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>72.80589558611268</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,28 +35017,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>30.91440664741805</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191141</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35249,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>951.7201651452608</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>913.266825139392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>137.2055943867781</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>511.3148488946567</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>400.4833060795844</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>951.7201651452608</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q14" t="n">
-        <v>526.7385503818841</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>209.8050995959142</v>
       </c>
       <c r="M15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,10 +35904,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>137.205594386779</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>243.3352893400963</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,16 +36047,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080452</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,19 +36369,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-2.986857035790905e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>1150.947247550853</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36613,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,16 +37080,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>216.346812327467</v>
       </c>
       <c r="P35" t="n">
-        <v>685.7606250949693</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8360165328637</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>327.8732572545617</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37704,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>205.9191540463152</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K42" t="n">
         <v>687.6096162327044</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>314.2706063050009</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.5463146682412</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.4542274390794</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2270859.251750583</v>
+        <v>2270334.069381549</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>179.6823727411595</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>104.0798554863197</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>25.82782615689357</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>263.3564484371379</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>277.6821005944472</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -910,13 +910,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>146.6939239414318</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>80.71860976030661</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1110,16 +1110,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>256.8023848366755</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>344.993045319737</v>
       </c>
       <c r="E8" t="n">
-        <v>59.25664966154039</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1195,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>31.28831241118253</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>243.9266518127011</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791334209</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>82.64119670414925</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766999</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>179.0861311466744</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.7955163720461</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.9484966573163</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>28.46824604904392</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>3.42339212608458</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3268,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3325,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884119</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869773</v>
@@ -3523,7 +3523,7 @@
         <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791314619</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907117</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>109.1426757626846</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773026</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316201</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655134</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>202.7785358843482</v>
+        <v>26.70160847752048</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -4033,13 +4033,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561541</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.80690004308</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.92574903168882</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.498727323736</v>
+        <v>1245.9111659461</v>
       </c>
       <c r="C2" t="n">
-        <v>957.3966585475634</v>
+        <v>1211.809097169927</v>
       </c>
       <c r="D2" t="n">
-        <v>775.899312344372</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
         <v>323.4906125312521</v>
@@ -4330,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1288.333161979394</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1287.518111430832</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>1272.416052050546</v>
       </c>
       <c r="Y2" t="n">
-        <v>1013.75789376824</v>
+        <v>1268.170332390604</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>60.00734176206595</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>766.5367714259833</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>593.9750599092082</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
         <v>428.0970671107308</v>
@@ -4488,13 +4488,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
         <v>857.4612819097326</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1649.676895495998</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1649.676895495998</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1649.676895495998</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1649.676895495998</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1377.650491082289</v>
+        <v>1431.16681549745</v>
       </c>
       <c r="X4" t="n">
-        <v>1132.258736415702</v>
+        <v>1185.775060830862</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.258736415702</v>
+        <v>958.3553901449704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.573996516818</v>
+        <v>416.7668933965988</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.431523700241</v>
+        <v>136.2799230991773</v>
       </c>
       <c r="D5" t="n">
-        <v>794.5217388746859</v>
+        <v>104.4105423140259</v>
       </c>
       <c r="E5" t="n">
-        <v>764.7873980733851</v>
+        <v>74.67620151272513</v>
       </c>
       <c r="F5" t="n">
-        <v>740.960372522997</v>
+        <v>50.84917596233691</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462609</v>
+        <v>50.84917596233691</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.84917596233691</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>557.7649106726409</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087175</v>
+        <v>557.7649106726409</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087175</v>
+        <v>557.7649106726409</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087175</v>
+        <v>557.7649106726409</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717427</v>
+        <v>1181.865694717418</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762206</v>
+        <v>1805.966478762195</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720801</v>
+        <v>2352.465264720789</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.619329473846</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473858</v>
+        <v>2437.967455657683</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473858</v>
+        <v>2437.967455657683</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.397026790874</v>
+        <v>2437.967455657683</v>
       </c>
       <c r="V5" t="n">
-        <v>2262.397026790874</v>
+        <v>2075.350505591509</v>
       </c>
       <c r="W5" t="n">
-        <v>2114.221346041953</v>
+        <v>1670.495051002543</v>
       </c>
       <c r="X5" t="n">
-        <v>2099.119286661668</v>
+        <v>1251.352587581853</v>
       </c>
       <c r="Y5" t="n">
-        <v>2094.873567001726</v>
+        <v>843.0664638815066</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639652</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909189</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070805</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326468</v>
+        <v>92.16803877326444</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993476</v>
+        <v>76.49605974993452</v>
       </c>
       <c r="J6" t="n">
-        <v>401.0543847161471</v>
+        <v>401.0543847161468</v>
       </c>
       <c r="K6" t="n">
-        <v>431.6596472970909</v>
+        <v>1025.155168760924</v>
       </c>
       <c r="L6" t="n">
-        <v>431.6596472970909</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970909</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970909</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970909</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>614.4535569886584</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>614.4535569886584</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>448.5755641901811</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>448.5755641901811</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>271.8685101519374</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>190.3345608991024</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947715</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947692</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606125</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285736</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609525</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.619329473846</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.20150817923</v>
+        <v>2521.619329473846</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477226</v>
+        <v>2362.377960771842</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055681</v>
+        <v>2116.498514350298</v>
       </c>
       <c r="U7" t="n">
-        <v>1835.684344735807</v>
+        <v>1838.065513603403</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.728836606238</v>
+        <v>1551.110005473833</v>
       </c>
       <c r="W7" t="n">
-        <v>1548.728836606238</v>
+        <v>1279.083601060125</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1033.691846393537</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>806.2721757076456</v>
       </c>
     </row>
     <row r="8">
@@ -4783,19 +4783,19 @@
         <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>859.8975998488716</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>828.0282190637201</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4810,19 +4810,19 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="N8" t="n">
-        <v>1954.407975719776</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4843,13 +4843,13 @@
         <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1743.687422190584</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.544958769894</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1320.299239109952</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7523231022661</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>783.1906115854911</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2457.797280463905</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2179.364279717011</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1892.408771587441</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1620.382367173733</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1374.990612507145</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1147.570941821253</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>3475.865925220629</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>3982.067625626339</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>3982.067625626339</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>3982.067625626339</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>3982.067625626339</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>4995.86923544464</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>4995.86923544464</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3405.6825604988</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>3233.120848982025</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>3067.242856183547</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>3067.242856183547</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>2890.535802145303</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>2857.720543372006</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>5113.04201353898</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>4867.162567117436</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>4588.729566370542</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>4342.339008983975</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>4070.312604570266</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>3824.920849903679</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>3597.501179217787</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436417</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>634.526213836947</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5469,19 +5469,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5551,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1407.425887208553</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5679,46 +5679,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745698</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.67908147158</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2132.904553083697</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5758,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
         <v>1107.588885023173</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>875.5388337745582</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>702.9771222577831</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>702.9771222577831</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>533.2191185085204</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>356.5120644702766</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1067.357452493545</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5998,13 +5998,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6068,25 +6068,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>839.0206718702449</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>666.4589603534698</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>500.5809675549925</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>330.8229638057298</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1030.839290589232</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M26" t="n">
-        <v>3586.363561010079</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N26" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>473.3149733731391</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>296.6079193348953</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>131.016644360723</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6469,10 +6469,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>228.5247761102221</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1303.584742363081</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2460.632577573632</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4729.704604581733</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4943.887948785926</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785926</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722818</v>
@@ -6973,16 +6973,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7019,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771598</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004237</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136698</v>
@@ -7244,31 +7244,31 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>617.7751448769883</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>617.7751448769883</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>441.0680908387445</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651792</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835215</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1208027766317</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766317</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987183</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993936</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827332</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785927</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257735</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837046</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
         <v>406.885835245268</v>
@@ -7490,7 +7490,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.855364952796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
         <v>1107.588885023173</v>
@@ -7514,16 +7514,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
         <v>1196.412455590541</v>
@@ -7532,10 +7532,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.560997133398</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C43" t="n">
-        <v>838.9992856166233</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>673.121292818146</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>673.121292818146</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799022</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
         <v>330.8229638057298</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1430.799286538277</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y43" t="n">
-        <v>1203.379615852386</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707797</v>
@@ -7657,43 +7657,43 @@
         <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2758.053686176686</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176686</v>
+        <v>2758.053686176685</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.233352746992</v>
+        <v>3738.233352746991</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580389</v>
+        <v>4566.543227580388</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538983</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.39013972282</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595859</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912875</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846702</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620725</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987148</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
         <v>406.885835245268</v>
@@ -7727,7 +7727,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.855364952796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7751,16 +7751,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
         <v>1196.412455590541</v>
@@ -7769,10 +7769,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626149</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418356</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799022</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354683</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066039</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774565</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955478</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338904</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.652494875569</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795273</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8057,25 +8057,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684646</v>
+        <v>512.4570950334989</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611268</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741805</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742117</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191141</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238298</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,22 +8458,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>511.3148488946567</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>209.8050995959142</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9184,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9646,16 +9646,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9716,28 +9716,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9877,28 +9877,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1150.947247550853</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>216.346812327467</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545617</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463152</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>301.5463146682412</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>314.2706063050009</v>
+        <v>314.270606305</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682412</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>40.15930123557271</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>88.19489769745806</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>96.56253959275131</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.34995760698669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.19697732171653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>110.0349065174853</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>54.79268646174602</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>40.15930123557345</v>
+        <v>216.2362286424012</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.219724947344</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>470147.1909084787</v>
+        <v>470147.1909084786</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488680.4332084321</v>
+        <v>488680.433208432</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488680.4332084319</v>
+        <v>488680.433208432</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>488680.433208432</v>
+        <v>488680.4332084319</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>488680.433208432</v>
+        <v>488680.4332084321</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>509339.9538958881</v>
+      </c>
+      <c r="C2" t="n">
         <v>509339.9538958882</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>509339.9538958881</v>
-      </c>
-      <c r="D2" t="n">
-        <v>509339.9538958882</v>
       </c>
       <c r="E2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="G2" t="n">
         <v>500514.7049304848</v>
-      </c>
-      <c r="G2" t="n">
-        <v>500514.7049304849</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="J2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304847</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="O2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304846</v>
       </c>
       <c r="P2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501647</v>
+        <v>66587.76789501548</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998248</v>
+        <v>11527.59554998342</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210499</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877275</v>
+        <v>53045.85463877198</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622076</v>
+        <v>9392.301726622845</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>163226.8987932457</v>
+        <v>163226.8987932462</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933275</v>
+        <v>68000.69828933272</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26447,19 +26447,19 @@
         <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="O4" t="n">
+        <v>68000.69828933274</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933278</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933274</v>
-      </c>
-      <c r="O4" t="n">
-        <v>68000.69828933271</v>
-      </c>
-      <c r="P4" t="n">
-        <v>68000.69828933266</v>
       </c>
     </row>
     <row r="5">
@@ -26472,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800263</v>
+        <v>71956.21380800245</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26502,10 +26502,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
         <v>77718.23860579253</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107895.0388524404</v>
+        <v>107895.0388524403</v>
       </c>
       <c r="C6" t="n">
-        <v>207569.0733996233</v>
+        <v>207569.0733996241</v>
       </c>
       <c r="D6" t="n">
-        <v>266963.1925314743</v>
+        <v>266963.1925314732</v>
       </c>
       <c r="E6" t="n">
-        <v>172440.6588143098</v>
+        <v>172417.4344749269</v>
       </c>
       <c r="F6" t="n">
-        <v>354795.7680353596</v>
+        <v>354772.5436959768</v>
       </c>
       <c r="G6" t="n">
-        <v>354795.7680353596</v>
+        <v>354772.5436959768</v>
       </c>
       <c r="H6" t="n">
-        <v>354795.7680353594</v>
+        <v>354772.5436959768</v>
       </c>
       <c r="I6" t="n">
-        <v>354795.7680353594</v>
+        <v>354772.5436959768</v>
       </c>
       <c r="J6" t="n">
-        <v>243781.3026903692</v>
+        <v>243758.0783509866</v>
       </c>
       <c r="K6" t="n">
-        <v>301749.9133965867</v>
+        <v>301726.6890572048</v>
       </c>
       <c r="L6" t="n">
-        <v>345403.4663087373</v>
+        <v>345380.2419693539</v>
       </c>
       <c r="M6" t="n">
-        <v>202595.5970973718</v>
+        <v>202572.3727579891</v>
       </c>
       <c r="N6" t="n">
-        <v>354795.7680353596</v>
+        <v>354772.543695977</v>
       </c>
       <c r="O6" t="n">
-        <v>354795.7680353594</v>
+        <v>354772.5436959767</v>
       </c>
       <c r="P6" t="n">
-        <v>354795.7680353595</v>
+        <v>354772.5436959769</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26822,10 +26822,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
         <v>1278.260503384746</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483602</v>
+        <v>206.1089748483571</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939246</v>
+        <v>37.1103742393955</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483602</v>
+        <v>206.1089748483571</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939246</v>
+        <v>37.1103742393955</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483602</v>
+        <v>206.1089748483571</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939246</v>
+        <v>37.1103742393955</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>251.8683142361404</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>254.910925079192</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>131.8211288580897</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27599,13 +27599,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>5.949691932433495</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>156.0789474939637</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>254.1129761016452</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>83.216752464124</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>18.8462859027502</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>86.5576416575629</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>370.1803477317474</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>212.1323395461467</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-2.023325951228117e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.699892640443005e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34777,25 +34777,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684646</v>
+        <v>512.4570950334989</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611268</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684644</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>30.91440664741805</v>
+        <v>630.4048323684615</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742117</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191141</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238298</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35251,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35430,10 +35430,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.2055943867781</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>511.3148488946567</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080414</v>
@@ -35582,13 +35582,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>209.8050995959142</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35810,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35904,10 +35904,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.3352893400963</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36047,16 +36047,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080452</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36366,16 +36366,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36436,28 +36436,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36597,28 +36597,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1150.947247550853</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>903.3699580700795</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,13 +36837,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>216.346812327467</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37384,10 +37384,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37469,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>327.8732572545617</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37706,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463152</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>301.5463146682412</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38025,7 +38025,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>314.2706063050009</v>
+        <v>314.270606305</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.5463146682412</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.4542274390794</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
